--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value171.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value171.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.517920147071046</v>
+        <v>0.5690543055534363</v>
       </c>
       <c r="B1">
-        <v>1.553033221797292</v>
+        <v>1.994382739067078</v>
       </c>
       <c r="C1">
-        <v>1.686788945166742</v>
+        <v>6.316158771514893</v>
       </c>
       <c r="D1">
-        <v>2.428000725208884</v>
+        <v>2.715606927871704</v>
       </c>
       <c r="E1">
-        <v>1.757545541120241</v>
+        <v>1.851594924926758</v>
       </c>
     </row>
   </sheetData>
